--- a/supplementary_data/area_pop_sums_income.xlsx
+++ b/supplementary_data/area_pop_sums_income.xlsx
@@ -14,24 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
-  <si>
-    <t>Coastal and marine Ecosystems</t>
-  </si>
-  <si>
-    <t>Human and managed systems</t>
-  </si>
-  <si>
-    <t>Mountains, snow and ice</t>
-  </si>
-  <si>
-    <t>Rivers, lakes, and soil moisture</t>
-  </si>
-  <si>
-    <t>Terrestrial ecosystems</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="148">
+  <si>
+    <t>Coastal and marine Ecosystems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Human and managed systems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Mountains, snow and ice (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Rivers, lakes, and soil moisture (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Terrestrial ecosystems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Other systems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Total (WS&gt;5)</t>
   </si>
   <si>
     <t>area</t>
@@ -40,16 +43,16 @@
     <t>population</t>
   </si>
   <si>
-    <t>5. Low income</t>
-  </si>
-  <si>
-    <t>4. Lower middle income</t>
-  </si>
-  <si>
-    <t>3. Upper middle income</t>
-  </si>
-  <si>
-    <t>1. High Income</t>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>High Income</t>
   </si>
   <si>
     <t>Global</t>
@@ -353,6 +356,54 @@
   </si>
   <si>
     <t>12% (11%-13%)</t>
+  </si>
+  <si>
+    <t>38% (17%-54%)</t>
+  </si>
+  <si>
+    <t>8% (4%-20%)</t>
+  </si>
+  <si>
+    <t>58% (31%-72%)</t>
+  </si>
+  <si>
+    <t>15% (7%-22%)</t>
+  </si>
+  <si>
+    <t>45% (25%-59%)</t>
+  </si>
+  <si>
+    <t>10% (4%-13%)</t>
+  </si>
+  <si>
+    <t>67% (47%-78%)</t>
+  </si>
+  <si>
+    <t>13% (9%-17%)</t>
+  </si>
+  <si>
+    <t>49% (29%-63%)</t>
+  </si>
+  <si>
+    <t>11% (5%-16%)</t>
+  </si>
+  <si>
+    <t>51% (27%-64%)</t>
+  </si>
+  <si>
+    <t>22% (19%-24%)</t>
+  </si>
+  <si>
+    <t>76% (62%-80%)</t>
+  </si>
+  <si>
+    <t>83% (67%-90%)</t>
+  </si>
+  <si>
+    <t>89% (81%-91%)</t>
+  </si>
+  <si>
+    <t>75% (59%-82%)</t>
   </si>
   <si>
     <t>34% (27%-43%)</t>
@@ -764,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -796,484 +847,555 @@
         <v>5</v>
       </c>
       <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" t="s">
-        <v>124</v>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s">
         <v>127</v>
       </c>
+      <c r="O8" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N10" t="s">
         <v>128</v>
       </c>
+      <c r="O10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s">
         <v>129</v>
       </c>
+      <c r="O12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
